--- a/퍼즐.xlsx
+++ b/퍼즐.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungle\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungle\W04_OnlyThreeColors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730C795E-8D46-4E7A-B71D-B8B731212A98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44CCECF-7285-4FD2-A8A4-A28953A51BE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{2FB2766E-05B0-4641-9ECB-BAC7DF10A341}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" activeTab="1" xr2:uid="{2FB2766E-05B0-4641-9ECB-BAC7DF10A341}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="75">
   <si>
     <t>A</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -190,6 +190,137 @@
   <si>
     <t>(medium easy)</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7번</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(easy)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inf.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8번</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9번</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10번</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(m easy)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11번</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inf.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(중간)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(변형)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -591,15 +722,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DAB8F9-36E8-437B-A573-B19BAD7DB5BF}">
-  <dimension ref="A1:AO19"/>
+  <dimension ref="A1:BY78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AN10" sqref="AN10"/>
+    <sheetView topLeftCell="BA1" workbookViewId="0">
+      <selection activeCell="BY16" sqref="BY16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="F1" s="1"/>
       <c r="I1" s="1"/>
@@ -611,8 +742,17 @@
       <c r="AH1" s="4"/>
       <c r="AK1" s="3"/>
       <c r="AO1" s="4"/>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AR1" s="4"/>
+      <c r="AV1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="BC1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BJ1" s="3"/>
+      <c r="BM1" s="3"/>
+      <c r="BQ1" s="4"/>
+      <c r="BY1" s="4"/>
+    </row>
+    <row r="2" spans="1:77" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="F2" s="1"/>
       <c r="I2" s="1"/>
@@ -624,8 +764,17 @@
       <c r="AH2" s="4"/>
       <c r="AK2" s="2"/>
       <c r="AO2" s="4"/>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AR2" s="4"/>
+      <c r="AV2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="BC2" s="4"/>
+      <c r="BF2" s="4"/>
+      <c r="BJ2" s="2"/>
+      <c r="BM2" s="2"/>
+      <c r="BQ2" s="3"/>
+      <c r="BY2" s="4"/>
+    </row>
+    <row r="3" spans="1:77" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="F3" s="1"/>
       <c r="I3" s="1"/>
@@ -637,8 +786,17 @@
       <c r="AH3" s="4"/>
       <c r="AK3" s="4"/>
       <c r="AO3" s="3"/>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AR3" s="3"/>
+      <c r="AV3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="BC3" s="3"/>
+      <c r="BF3" s="3"/>
+      <c r="BJ3" s="4"/>
+      <c r="BM3" s="4"/>
+      <c r="BQ3" s="2"/>
+      <c r="BY3" s="4"/>
+    </row>
+    <row r="4" spans="1:77" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="F4" s="1"/>
       <c r="I4" s="1"/>
@@ -650,8 +808,17 @@
       <c r="AH4" s="3"/>
       <c r="AK4" s="4"/>
       <c r="AO4" s="3"/>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AR4" s="3"/>
+      <c r="AV4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="BC4" s="3"/>
+      <c r="BF4" s="3"/>
+      <c r="BJ4" s="4"/>
+      <c r="BM4" s="4"/>
+      <c r="BQ4" s="4"/>
+      <c r="BY4" s="4"/>
+    </row>
+    <row r="5" spans="1:77" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="F5" s="1"/>
       <c r="I5" s="1"/>
@@ -663,8 +830,18 @@
       <c r="AH5" s="3"/>
       <c r="AK5" s="2"/>
       <c r="AO5" s="2"/>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AR5" s="2"/>
+      <c r="AV5" s="3"/>
+      <c r="AY5" s="3"/>
+      <c r="BC5" s="2"/>
+      <c r="BF5" s="2"/>
+      <c r="BJ5" s="2"/>
+      <c r="BM5" s="2"/>
+      <c r="BQ5" s="3"/>
+      <c r="BU5" s="2"/>
+      <c r="BY5" s="4"/>
+    </row>
+    <row r="6" spans="1:77" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="F6" s="3"/>
       <c r="I6" s="2"/>
@@ -676,8 +853,18 @@
       <c r="AH6" s="3"/>
       <c r="AK6" s="3"/>
       <c r="AO6" s="2"/>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AR6" s="2"/>
+      <c r="AV6" s="2"/>
+      <c r="AY6" s="2"/>
+      <c r="BC6" s="2"/>
+      <c r="BF6" s="2"/>
+      <c r="BJ6" s="3"/>
+      <c r="BM6" s="3"/>
+      <c r="BQ6" s="2"/>
+      <c r="BU6" s="2"/>
+      <c r="BY6" s="3"/>
+    </row>
+    <row r="7" spans="1:77" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="F7" s="3"/>
       <c r="I7" s="2"/>
@@ -705,8 +892,82 @@
       <c r="AO7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AQ7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>44</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>46</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>47</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>53</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>44</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>45</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>46</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>47</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>54</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>43</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>44</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>45</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>46</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>47</v>
+      </c>
+      <c r="BU7" s="2"/>
+      <c r="BY7" s="3"/>
+    </row>
+    <row r="8" spans="1:77" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="F8" s="3"/>
       <c r="I8" s="2"/>
@@ -720,8 +981,22 @@
       <c r="AJ8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AQ8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>55</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>55</v>
+      </c>
+      <c r="BU8" s="4"/>
+      <c r="BY8" s="3"/>
+    </row>
+    <row r="9" spans="1:77" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
       <c r="F9" s="3"/>
       <c r="I9" s="3"/>
@@ -732,8 +1007,10 @@
       <c r="AA9" s="3"/>
       <c r="AD9" s="4"/>
       <c r="AH9" s="2"/>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="BU9" s="4"/>
+      <c r="BY9" s="3"/>
+    </row>
+    <row r="10" spans="1:77" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="F10" s="2"/>
       <c r="I10" s="3"/>
@@ -760,8 +1037,10 @@
       <c r="AH10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="BU10" s="4"/>
+      <c r="BY10" s="3"/>
+    </row>
+    <row r="11" spans="1:77" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="F11" s="2"/>
       <c r="I11" s="3"/>
@@ -774,8 +1053,10 @@
       <c r="AC11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="BU11" s="2"/>
+      <c r="BY11" s="2"/>
+    </row>
+    <row r="12" spans="1:77" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="F12" s="2"/>
       <c r="I12" s="3"/>
@@ -785,8 +1066,11 @@
       <c r="W12" s="3"/>
       <c r="X12" s="4"/>
       <c r="AA12" s="2"/>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="BU12" s="3"/>
+      <c r="BW12" s="4"/>
+      <c r="BY12" s="2"/>
+    </row>
+    <row r="13" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -844,8 +1128,11 @@
       <c r="W13" s="3"/>
       <c r="X13" s="4"/>
       <c r="AA13" s="2"/>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="BU13" s="3"/>
+      <c r="BW13" s="4"/>
+      <c r="BY13" s="2"/>
+    </row>
+    <row r="14" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -858,23 +1145,65 @@
       <c r="W14" s="2"/>
       <c r="X14" s="4"/>
       <c r="AA14" s="2"/>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="BU14" s="3"/>
+      <c r="BW14" s="3"/>
+      <c r="BY14" s="2"/>
+    </row>
+    <row r="15" spans="1:77" x14ac:dyDescent="0.3">
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
       <c r="AA15" s="2"/>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="BU15" s="3"/>
+      <c r="BW15" s="2"/>
+      <c r="BY15" s="2"/>
+    </row>
+    <row r="16" spans="1:77" x14ac:dyDescent="0.3">
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
       <c r="AA16" s="2"/>
-    </row>
-    <row r="17" spans="22:27" x14ac:dyDescent="0.3">
+      <c r="BS16" t="s">
+        <v>56</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>58</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>59</v>
+      </c>
+      <c r="BW16" t="s">
+        <v>60</v>
+      </c>
+      <c r="BX16" t="s">
+        <v>61</v>
+      </c>
+      <c r="BY16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="22:77" x14ac:dyDescent="0.3">
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
       <c r="AA17" s="2"/>
-    </row>
-    <row r="18" spans="22:27" x14ac:dyDescent="0.3">
+      <c r="BT17" t="s">
+        <v>63</v>
+      </c>
+      <c r="BU17" t="s">
+        <v>64</v>
+      </c>
+      <c r="BV17" t="s">
+        <v>65</v>
+      </c>
+      <c r="BW17" t="s">
+        <v>66</v>
+      </c>
+      <c r="BX17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="22:77" x14ac:dyDescent="0.3">
       <c r="V18" t="s">
         <v>16</v>
       </c>
@@ -894,9 +1223,298 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="22:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="22:77" x14ac:dyDescent="0.3">
       <c r="V19" t="s">
         <v>30</v>
+      </c>
+      <c r="BY19" s="4"/>
+    </row>
+    <row r="20" spans="22:77" x14ac:dyDescent="0.3">
+      <c r="BY20" s="4"/>
+    </row>
+    <row r="21" spans="22:77" x14ac:dyDescent="0.3">
+      <c r="BY21" s="4"/>
+    </row>
+    <row r="22" spans="22:77" x14ac:dyDescent="0.3">
+      <c r="BY22" s="4"/>
+    </row>
+    <row r="23" spans="22:77" x14ac:dyDescent="0.3">
+      <c r="BY23" s="4"/>
+    </row>
+    <row r="24" spans="22:77" x14ac:dyDescent="0.3">
+      <c r="BY24" s="3"/>
+    </row>
+    <row r="25" spans="22:77" x14ac:dyDescent="0.3">
+      <c r="BY25" s="3"/>
+    </row>
+    <row r="26" spans="22:77" x14ac:dyDescent="0.3">
+      <c r="BV26" s="2"/>
+      <c r="BY26" s="3"/>
+    </row>
+    <row r="27" spans="22:77" x14ac:dyDescent="0.3">
+      <c r="BV27" s="2"/>
+      <c r="BY27" s="3"/>
+    </row>
+    <row r="28" spans="22:77" x14ac:dyDescent="0.3">
+      <c r="BV28" s="2"/>
+      <c r="BY28" s="3"/>
+    </row>
+    <row r="29" spans="22:77" x14ac:dyDescent="0.3">
+      <c r="BV29" s="2"/>
+      <c r="BY29" s="2"/>
+    </row>
+    <row r="30" spans="22:77" x14ac:dyDescent="0.3">
+      <c r="BV30" s="2"/>
+      <c r="BW30" s="3"/>
+      <c r="BY30" s="2"/>
+    </row>
+    <row r="31" spans="22:77" x14ac:dyDescent="0.3">
+      <c r="BT31" s="4"/>
+      <c r="BV31" s="3"/>
+      <c r="BW31" s="3"/>
+      <c r="BY31" s="2"/>
+    </row>
+    <row r="32" spans="22:77" x14ac:dyDescent="0.3">
+      <c r="BT32" s="4"/>
+      <c r="BV32" s="3"/>
+      <c r="BW32" s="4"/>
+      <c r="BY32" s="2"/>
+    </row>
+    <row r="33" spans="71:77" x14ac:dyDescent="0.3">
+      <c r="BT33" s="4"/>
+      <c r="BV33" s="3"/>
+      <c r="BW33" s="4"/>
+      <c r="BY33" s="2"/>
+    </row>
+    <row r="34" spans="71:77" x14ac:dyDescent="0.3">
+      <c r="BS34" t="s">
+        <v>56</v>
+      </c>
+      <c r="BT34" t="s">
+        <v>57</v>
+      </c>
+      <c r="BU34" t="s">
+        <v>58</v>
+      </c>
+      <c r="BV34" t="s">
+        <v>59</v>
+      </c>
+      <c r="BW34" t="s">
+        <v>60</v>
+      </c>
+      <c r="BX34" t="s">
+        <v>61</v>
+      </c>
+      <c r="BY34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="71:77" x14ac:dyDescent="0.3">
+      <c r="BS35" t="s">
+        <v>68</v>
+      </c>
+      <c r="BT35" t="s">
+        <v>63</v>
+      </c>
+      <c r="BU35" t="s">
+        <v>64</v>
+      </c>
+      <c r="BV35" t="s">
+        <v>65</v>
+      </c>
+      <c r="BW35" t="s">
+        <v>66</v>
+      </c>
+      <c r="BX35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="71:77" x14ac:dyDescent="0.3">
+      <c r="BY44" s="4"/>
+    </row>
+    <row r="45" spans="71:77" x14ac:dyDescent="0.3">
+      <c r="BY45" s="4"/>
+    </row>
+    <row r="46" spans="71:77" x14ac:dyDescent="0.3">
+      <c r="BY46" s="4"/>
+    </row>
+    <row r="47" spans="71:77" x14ac:dyDescent="0.3">
+      <c r="BY47" s="4"/>
+    </row>
+    <row r="48" spans="71:77" x14ac:dyDescent="0.3">
+      <c r="BU48" s="4"/>
+      <c r="BY48" s="4"/>
+    </row>
+    <row r="49" spans="71:77" x14ac:dyDescent="0.3">
+      <c r="BU49" s="4"/>
+      <c r="BY49" s="3"/>
+    </row>
+    <row r="50" spans="71:77" x14ac:dyDescent="0.3">
+      <c r="BU50" s="4"/>
+      <c r="BY50" s="3"/>
+    </row>
+    <row r="51" spans="71:77" x14ac:dyDescent="0.3">
+      <c r="BU51" s="2"/>
+      <c r="BY51" s="3"/>
+    </row>
+    <row r="52" spans="71:77" x14ac:dyDescent="0.3">
+      <c r="BU52" s="2"/>
+      <c r="BY52" s="3"/>
+    </row>
+    <row r="53" spans="71:77" x14ac:dyDescent="0.3">
+      <c r="BU53" s="3"/>
+      <c r="BY53" s="3"/>
+    </row>
+    <row r="54" spans="71:77" x14ac:dyDescent="0.3">
+      <c r="BU54" s="2"/>
+      <c r="BY54" s="2"/>
+    </row>
+    <row r="55" spans="71:77" x14ac:dyDescent="0.3">
+      <c r="BU55" s="2"/>
+      <c r="BW55" s="3"/>
+      <c r="BY55" s="2"/>
+    </row>
+    <row r="56" spans="71:77" x14ac:dyDescent="0.3">
+      <c r="BU56" s="2"/>
+      <c r="BW56" s="3"/>
+      <c r="BY56" s="2"/>
+    </row>
+    <row r="57" spans="71:77" x14ac:dyDescent="0.3">
+      <c r="BU57" s="4"/>
+      <c r="BW57" s="3"/>
+      <c r="BY57" s="2"/>
+    </row>
+    <row r="58" spans="71:77" x14ac:dyDescent="0.3">
+      <c r="BU58" s="4"/>
+      <c r="BW58" s="3"/>
+      <c r="BY58" s="2"/>
+    </row>
+    <row r="59" spans="71:77" x14ac:dyDescent="0.3">
+      <c r="BS59" t="s">
+        <v>56</v>
+      </c>
+      <c r="BT59" t="s">
+        <v>57</v>
+      </c>
+      <c r="BU59" t="s">
+        <v>58</v>
+      </c>
+      <c r="BV59" t="s">
+        <v>59</v>
+      </c>
+      <c r="BW59" t="s">
+        <v>60</v>
+      </c>
+      <c r="BX59" t="s">
+        <v>61</v>
+      </c>
+      <c r="BY59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="71:77" x14ac:dyDescent="0.3">
+      <c r="BS60" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="71:77" x14ac:dyDescent="0.3">
+      <c r="BY62" s="4"/>
+    </row>
+    <row r="63" spans="71:77" x14ac:dyDescent="0.3">
+      <c r="BY63" s="4"/>
+    </row>
+    <row r="64" spans="71:77" x14ac:dyDescent="0.3">
+      <c r="BY64" s="4"/>
+    </row>
+    <row r="65" spans="71:77" x14ac:dyDescent="0.3">
+      <c r="BY65" s="4"/>
+    </row>
+    <row r="66" spans="71:77" x14ac:dyDescent="0.3">
+      <c r="BU66" s="4"/>
+      <c r="BY66" s="4"/>
+    </row>
+    <row r="67" spans="71:77" x14ac:dyDescent="0.3">
+      <c r="BU67" s="4"/>
+      <c r="BY67" s="3"/>
+    </row>
+    <row r="68" spans="71:77" x14ac:dyDescent="0.3">
+      <c r="BU68" s="4"/>
+      <c r="BY68" s="3"/>
+    </row>
+    <row r="69" spans="71:77" x14ac:dyDescent="0.3">
+      <c r="BU69" s="2"/>
+      <c r="BY69" s="3"/>
+    </row>
+    <row r="70" spans="71:77" x14ac:dyDescent="0.3">
+      <c r="BU70" s="2"/>
+      <c r="BY70" s="3"/>
+    </row>
+    <row r="71" spans="71:77" x14ac:dyDescent="0.3">
+      <c r="BU71" s="3"/>
+      <c r="BY71" s="3"/>
+    </row>
+    <row r="72" spans="71:77" x14ac:dyDescent="0.3">
+      <c r="BU72" s="2"/>
+      <c r="BY72" s="2"/>
+    </row>
+    <row r="73" spans="71:77" x14ac:dyDescent="0.3">
+      <c r="BU73" s="2"/>
+      <c r="BW73" s="3"/>
+      <c r="BY73" s="2"/>
+    </row>
+    <row r="74" spans="71:77" x14ac:dyDescent="0.3">
+      <c r="BU74" s="2"/>
+      <c r="BW74" s="3"/>
+      <c r="BY74" s="2"/>
+    </row>
+    <row r="75" spans="71:77" x14ac:dyDescent="0.3">
+      <c r="BU75" s="4"/>
+      <c r="BW75" s="3"/>
+      <c r="BY75" s="2"/>
+    </row>
+    <row r="76" spans="71:77" x14ac:dyDescent="0.3">
+      <c r="BU76" s="4"/>
+      <c r="BW76" s="3"/>
+      <c r="BY76" s="2"/>
+    </row>
+    <row r="77" spans="71:77" x14ac:dyDescent="0.3">
+      <c r="BS77" t="s">
+        <v>56</v>
+      </c>
+      <c r="BT77" t="s">
+        <v>57</v>
+      </c>
+      <c r="BU77" t="s">
+        <v>58</v>
+      </c>
+      <c r="BV77" t="s">
+        <v>59</v>
+      </c>
+      <c r="BW77" t="s">
+        <v>60</v>
+      </c>
+      <c r="BX77" t="s">
+        <v>61</v>
+      </c>
+      <c r="BY77" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78" spans="71:77" x14ac:dyDescent="0.3">
+      <c r="BT78" t="s">
+        <v>63</v>
+      </c>
+      <c r="BU78" t="s">
+        <v>64</v>
+      </c>
+      <c r="BV78" t="s">
+        <v>65</v>
+      </c>
+      <c r="BW78" t="s">
+        <v>66</v>
+      </c>
+      <c r="BX78" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -908,15 +1526,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BB8EFC-A105-4100-84A9-E22129322B54}">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:AF37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:Q9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AD28" sqref="AD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -935,8 +1553,23 @@
       <c r="P1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -973,8 +1606,38 @@
       <c r="Q2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2" t="s">
+        <v>48</v>
+      </c>
+      <c r="W2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1011,8 +1674,38 @@
       <c r="Q3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S3" t="s">
+        <v>48</v>
+      </c>
+      <c r="T3" t="s">
+        <v>50</v>
+      </c>
+      <c r="V3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1049,8 +1742,38 @@
       <c r="Q4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S4" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4" t="s">
+        <v>51</v>
+      </c>
+      <c r="V4" t="s">
+        <v>51</v>
+      </c>
+      <c r="W4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1810,38 @@
       <c r="Q5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V5" t="s">
+        <v>50</v>
+      </c>
+      <c r="W5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1125,8 +1878,38 @@
       <c r="Q6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S6" t="s">
+        <v>48</v>
+      </c>
+      <c r="T6" t="s">
+        <v>51</v>
+      </c>
+      <c r="V6" t="s">
+        <v>48</v>
+      </c>
+      <c r="W6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -1157,8 +1940,32 @@
       <c r="Q7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V7" t="s">
+        <v>49</v>
+      </c>
+      <c r="W7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>7</v>
       </c>
@@ -1189,8 +1996,26 @@
       <c r="Q8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Y8" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>8</v>
       </c>
@@ -1221,8 +2046,20 @@
       <c r="Q9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Y9" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>0</v>
       </c>
@@ -1247,8 +2084,14 @@
       <c r="N10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="AE10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>6</v>
       </c>
@@ -1273,8 +2116,14 @@
       <c r="N11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="AE11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>7</v>
       </c>
@@ -1299,8 +2148,14 @@
       <c r="N12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="AE12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="G13" t="s">
         <v>6</v>
       </c>
@@ -1313,8 +2168,14 @@
       <c r="K13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="AE13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="J14" t="s">
         <v>25</v>
       </c>
@@ -1324,8 +2185,14 @@
       <c r="M14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="AE14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="J15" t="s">
         <v>26</v>
       </c>
@@ -1338,8 +2205,14 @@
       <c r="N15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="AE15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="J16" t="s">
         <v>28</v>
       </c>
@@ -1352,16 +2225,28 @@
       <c r="N16" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="AE16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="10:32" x14ac:dyDescent="0.3">
       <c r="M17" t="s">
         <v>25</v>
       </c>
       <c r="N17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="AE17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="10:32" x14ac:dyDescent="0.3">
       <c r="J18" t="s">
         <v>29</v>
       </c>
@@ -1371,8 +2256,14 @@
       <c r="N18" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="AE18" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="10:32" x14ac:dyDescent="0.3">
       <c r="J19" t="s">
         <v>6</v>
       </c>
@@ -1385,8 +2276,14 @@
       <c r="N19" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="AE19" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="10:32" x14ac:dyDescent="0.3">
       <c r="J20" t="s">
         <v>6</v>
       </c>
@@ -1399,8 +2296,14 @@
       <c r="N20" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="AE20" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="10:32" x14ac:dyDescent="0.3">
       <c r="J21" t="s">
         <v>0</v>
       </c>
@@ -1413,8 +2316,14 @@
       <c r="N21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="AE21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="10:32" x14ac:dyDescent="0.3">
       <c r="J22" t="s">
         <v>0</v>
       </c>
@@ -1427,8 +2336,14 @@
       <c r="N22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="AE22" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="10:32" x14ac:dyDescent="0.3">
       <c r="J23" t="s">
         <v>6</v>
       </c>
@@ -1441,8 +2356,14 @@
       <c r="N23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="AE23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="10:32" x14ac:dyDescent="0.3">
       <c r="J24" t="s">
         <v>7</v>
       </c>
@@ -1455,8 +2376,14 @@
       <c r="N24" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="AE24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="10:32" x14ac:dyDescent="0.3">
       <c r="J25" t="s">
         <v>8</v>
       </c>
@@ -1469,8 +2396,14 @@
       <c r="N25" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="AE25" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="10:32" x14ac:dyDescent="0.3">
       <c r="J26" t="s">
         <v>8</v>
       </c>
@@ -1483,8 +2416,14 @@
       <c r="N26" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="AE26" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="10:32" x14ac:dyDescent="0.3">
       <c r="J27" t="s">
         <v>7</v>
       </c>
@@ -1497,8 +2436,14 @@
       <c r="N27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="AE27" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="10:32" x14ac:dyDescent="0.3">
       <c r="J28" t="s">
         <v>0</v>
       </c>
@@ -1511,8 +2456,14 @@
       <c r="N28" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="AE28" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="10:32" x14ac:dyDescent="0.3">
       <c r="J29" t="s">
         <v>8</v>
       </c>
@@ -1525,8 +2476,14 @@
       <c r="N29" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="AE29" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="10:32" x14ac:dyDescent="0.3">
       <c r="J30" t="s">
         <v>6</v>
       </c>
@@ -1540,7 +2497,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="10:32" x14ac:dyDescent="0.3">
       <c r="J31" t="s">
         <v>0</v>
       </c>
@@ -1554,7 +2511,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="10:32" x14ac:dyDescent="0.3">
       <c r="J32" t="s">
         <v>7</v>
       </c>

--- a/퍼즐.xlsx
+++ b/퍼즐.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungle\W04_OnlyThreeColors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44CCECF-7285-4FD2-A8A4-A28953A51BE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA73D6DF-DD5F-40E2-B52B-A5B471FAEFCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" activeTab="1" xr2:uid="{2FB2766E-05B0-4641-9ECB-BAC7DF10A341}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="108">
   <si>
     <t>A</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -148,10 +148,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(medium hard)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>6번</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -188,10 +184,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(medium easy)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>7번</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -248,10 +240,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(m easy)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>11번</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -300,10 +288,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(중간)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>(변형)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -321,6 +305,154 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>12번</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inf.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예전 풀이?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13번</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(tutorial)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(hard)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(hard)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(medium)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14번</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inf.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(hard)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15번</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inf.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(hard)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16번</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -352,7 +484,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,6 +509,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -392,7 +530,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -406,6 +544,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -722,15 +866,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DAB8F9-36E8-437B-A573-B19BAD7DB5BF}">
-  <dimension ref="A1:BY78"/>
+  <dimension ref="A1:DI78"/>
   <sheetViews>
-    <sheetView topLeftCell="BA1" workbookViewId="0">
-      <selection activeCell="BY16" sqref="BY16"/>
+    <sheetView topLeftCell="CK1" workbookViewId="0">
+      <selection activeCell="DC1" sqref="DC1:DI17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:113" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="F1" s="1"/>
       <c r="I1" s="1"/>
@@ -751,8 +895,15 @@
       <c r="BM1" s="3"/>
       <c r="BQ1" s="4"/>
       <c r="BY1" s="4"/>
-    </row>
-    <row r="2" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="CB1" s="4"/>
+      <c r="CF1" s="4"/>
+      <c r="CM1" s="1"/>
+      <c r="CP1" s="2"/>
+      <c r="CT1" s="4"/>
+      <c r="DA1" s="4"/>
+      <c r="DI1" s="2"/>
+    </row>
+    <row r="2" spans="1:113" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="F2" s="1"/>
       <c r="I2" s="1"/>
@@ -773,8 +924,15 @@
       <c r="BM2" s="2"/>
       <c r="BQ2" s="3"/>
       <c r="BY2" s="4"/>
-    </row>
-    <row r="3" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="CB2" s="4"/>
+      <c r="CF2" s="3"/>
+      <c r="CM2" s="1"/>
+      <c r="CP2" s="3"/>
+      <c r="CT2" s="4"/>
+      <c r="DA2" s="4"/>
+      <c r="DI2" s="2"/>
+    </row>
+    <row r="3" spans="1:113" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="F3" s="1"/>
       <c r="I3" s="1"/>
@@ -795,8 +953,15 @@
       <c r="BM3" s="4"/>
       <c r="BQ3" s="2"/>
       <c r="BY3" s="4"/>
-    </row>
-    <row r="4" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="CB3" s="3"/>
+      <c r="CF3" s="5"/>
+      <c r="CM3" s="3"/>
+      <c r="CP3" s="2"/>
+      <c r="CT3" s="3"/>
+      <c r="DA3" s="4"/>
+      <c r="DI3" s="3"/>
+    </row>
+    <row r="4" spans="1:113" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="F4" s="1"/>
       <c r="I4" s="1"/>
@@ -817,8 +982,15 @@
       <c r="BM4" s="4"/>
       <c r="BQ4" s="4"/>
       <c r="BY4" s="4"/>
-    </row>
-    <row r="5" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="CB4" s="3"/>
+      <c r="CF4" s="4"/>
+      <c r="CM4" s="3"/>
+      <c r="CP4" s="2"/>
+      <c r="CT4" s="3"/>
+      <c r="DA4" s="4"/>
+      <c r="DI4" s="3"/>
+    </row>
+    <row r="5" spans="1:113" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="F5" s="1"/>
       <c r="I5" s="1"/>
@@ -840,8 +1012,16 @@
       <c r="BQ5" s="3"/>
       <c r="BU5" s="2"/>
       <c r="BY5" s="4"/>
-    </row>
-    <row r="6" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="CB5" s="5"/>
+      <c r="CF5" s="3"/>
+      <c r="CM5" s="2"/>
+      <c r="CP5" s="3"/>
+      <c r="CT5" s="3"/>
+      <c r="DA5" s="3"/>
+      <c r="DD5" s="1"/>
+      <c r="DI5" s="1"/>
+    </row>
+    <row r="6" spans="1:113" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="F6" s="3"/>
       <c r="I6" s="2"/>
@@ -863,8 +1043,17 @@
       <c r="BQ6" s="2"/>
       <c r="BU6" s="2"/>
       <c r="BY6" s="3"/>
-    </row>
-    <row r="7" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="CB6" s="5"/>
+      <c r="CF6" s="5"/>
+      <c r="CM6" s="2"/>
+      <c r="CP6" s="3"/>
+      <c r="CT6" s="3"/>
+      <c r="CX6" s="4"/>
+      <c r="DA6" s="3"/>
+      <c r="DD6" s="1"/>
+      <c r="DI6" s="1"/>
+    </row>
+    <row r="7" spans="1:113" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="F7" s="3"/>
       <c r="I7" s="2"/>
@@ -875,99 +1064,124 @@
       <c r="AD7" s="2"/>
       <c r="AH7" s="2"/>
       <c r="AJ7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK7" t="s">
         <v>31</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AL7" t="s">
         <v>32</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AM7" t="s">
         <v>33</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AN7" t="s">
         <v>34</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>35</v>
       </c>
       <c r="AO7" t="s">
         <v>4</v>
       </c>
       <c r="AQ7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR7" t="s">
         <v>41</v>
       </c>
-      <c r="AR7" t="s">
+      <c r="AS7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT7" t="s">
         <v>43</v>
       </c>
-      <c r="AS7" t="s">
+      <c r="AU7" t="s">
         <v>44</v>
       </c>
-      <c r="AT7" t="s">
+      <c r="AV7" t="s">
         <v>45</v>
       </c>
-      <c r="AU7" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>47</v>
-      </c>
       <c r="AX7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>43</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>44</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>51</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>44</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>45</v>
+      </c>
+      <c r="BL7" t="s">
         <v>52</v>
       </c>
-      <c r="AY7" t="s">
+      <c r="BM7" t="s">
+        <v>41</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BO7" t="s">
         <v>43</v>
       </c>
-      <c r="AZ7" t="s">
+      <c r="BP7" t="s">
         <v>44</v>
       </c>
-      <c r="BA7" t="s">
+      <c r="BQ7" t="s">
         <v>45</v>
-      </c>
-      <c r="BB7" t="s">
-        <v>46</v>
-      </c>
-      <c r="BC7" t="s">
-        <v>47</v>
-      </c>
-      <c r="BE7" t="s">
-        <v>53</v>
-      </c>
-      <c r="BF7" t="s">
-        <v>43</v>
-      </c>
-      <c r="BG7" t="s">
-        <v>44</v>
-      </c>
-      <c r="BH7" t="s">
-        <v>45</v>
-      </c>
-      <c r="BI7" t="s">
-        <v>46</v>
-      </c>
-      <c r="BJ7" t="s">
-        <v>47</v>
-      </c>
-      <c r="BL7" t="s">
-        <v>54</v>
-      </c>
-      <c r="BM7" t="s">
-        <v>43</v>
-      </c>
-      <c r="BN7" t="s">
-        <v>44</v>
-      </c>
-      <c r="BO7" t="s">
-        <v>45</v>
-      </c>
-      <c r="BP7" t="s">
-        <v>46</v>
-      </c>
-      <c r="BQ7" t="s">
-        <v>47</v>
       </c>
       <c r="BU7" s="2"/>
       <c r="BY7" s="3"/>
-    </row>
-    <row r="8" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="CA7" t="s">
+        <v>71</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>72</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>13</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>73</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>4</v>
+      </c>
+      <c r="CM7" s="2"/>
+      <c r="CP7" s="4"/>
+      <c r="CT7" s="3"/>
+      <c r="CX7" s="3"/>
+      <c r="DA7" s="3"/>
+      <c r="DD7" s="1"/>
+      <c r="DI7" s="2"/>
+    </row>
+    <row r="8" spans="1:113" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="F8" s="3"/>
       <c r="I8" s="2"/>
@@ -979,24 +1193,35 @@
       <c r="AD8" s="3"/>
       <c r="AH8" s="2"/>
       <c r="AJ8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ8" t="s">
         <v>40</v>
       </c>
-      <c r="AQ8" t="s">
-        <v>42</v>
-      </c>
       <c r="AX8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="BE8" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="BL8" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="BU8" s="4"/>
       <c r="BY8" s="3"/>
-    </row>
-    <row r="9" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="CA8" t="s">
+        <v>84</v>
+      </c>
+      <c r="CM8" s="1"/>
+      <c r="CP8" s="2"/>
+      <c r="CT8" s="2"/>
+      <c r="CX8" s="2"/>
+      <c r="CY8" s="4"/>
+      <c r="DA8" s="3"/>
+      <c r="DD8" s="1"/>
+      <c r="DI8" s="2"/>
+    </row>
+    <row r="9" spans="1:113" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
       <c r="F9" s="3"/>
       <c r="I9" s="3"/>
@@ -1009,8 +1234,17 @@
       <c r="AH9" s="2"/>
       <c r="BU9" s="4"/>
       <c r="BY9" s="3"/>
-    </row>
-    <row r="10" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="CI9" s="2"/>
+      <c r="CM9" s="1"/>
+      <c r="CP9" s="2"/>
+      <c r="CT9" s="2"/>
+      <c r="CX9" s="3"/>
+      <c r="CY9" s="4"/>
+      <c r="DA9" s="2"/>
+      <c r="DD9" s="2"/>
+      <c r="DI9" s="2"/>
+    </row>
+    <row r="10" spans="1:113" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="F10" s="2"/>
       <c r="I10" s="3"/>
@@ -1039,8 +1273,17 @@
       </c>
       <c r="BU10" s="4"/>
       <c r="BY10" s="3"/>
-    </row>
-    <row r="11" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="CI10" s="2"/>
+      <c r="CM10" s="3"/>
+      <c r="CP10" s="4"/>
+      <c r="CT10" s="2"/>
+      <c r="CX10" s="2"/>
+      <c r="CY10" s="4"/>
+      <c r="DA10" s="2"/>
+      <c r="DD10" s="2"/>
+      <c r="DI10" s="1"/>
+    </row>
+    <row r="11" spans="1:113" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="F11" s="2"/>
       <c r="I11" s="3"/>
@@ -1055,8 +1298,19 @@
       </c>
       <c r="BU11" s="2"/>
       <c r="BY11" s="2"/>
-    </row>
-    <row r="12" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="CI11" s="2"/>
+      <c r="CJ11" s="3"/>
+      <c r="CK11" s="1"/>
+      <c r="CM11" s="3"/>
+      <c r="CP11" s="3"/>
+      <c r="CT11" s="2"/>
+      <c r="CX11" s="2"/>
+      <c r="CY11" s="3"/>
+      <c r="DA11" s="2"/>
+      <c r="DD11" s="2"/>
+      <c r="DI11" s="1"/>
+    </row>
+    <row r="12" spans="1:113" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="F12" s="2"/>
       <c r="I12" s="3"/>
@@ -1069,8 +1323,20 @@
       <c r="BU12" s="3"/>
       <c r="BW12" s="4"/>
       <c r="BY12" s="2"/>
-    </row>
-    <row r="13" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="CI12" s="2"/>
+      <c r="CJ12" s="3"/>
+      <c r="CK12" s="1"/>
+      <c r="CM12" s="2"/>
+      <c r="CP12" s="2"/>
+      <c r="CT12" s="2"/>
+      <c r="CX12" s="2"/>
+      <c r="CY12" s="3"/>
+      <c r="DA12" s="2"/>
+      <c r="DD12" s="2"/>
+      <c r="DE12" s="3"/>
+      <c r="DI12" s="3"/>
+    </row>
+    <row r="13" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1131,10 +1397,37 @@
       <c r="BU13" s="3"/>
       <c r="BW13" s="4"/>
       <c r="BY13" s="2"/>
-    </row>
-    <row r="14" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="CI13" s="2"/>
+      <c r="CJ13" s="3"/>
+      <c r="CK13" s="1"/>
+      <c r="CM13" s="2"/>
+      <c r="CP13" s="3"/>
+      <c r="CT13" s="2"/>
+      <c r="CV13" t="s">
+        <v>96</v>
+      </c>
+      <c r="CW13" t="s">
+        <v>105</v>
+      </c>
+      <c r="CX13" t="s">
+        <v>97</v>
+      </c>
+      <c r="CY13" t="s">
+        <v>106</v>
+      </c>
+      <c r="CZ13" t="s">
+        <v>98</v>
+      </c>
+      <c r="DA13" t="s">
+        <v>99</v>
+      </c>
+      <c r="DD13" s="2"/>
+      <c r="DE13" s="3"/>
+      <c r="DI13" s="3"/>
+    </row>
+    <row r="14" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
@@ -1148,62 +1441,168 @@
       <c r="BU14" s="3"/>
       <c r="BW14" s="3"/>
       <c r="BY14" s="2"/>
-    </row>
-    <row r="15" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="CI14" s="2"/>
+      <c r="CJ14" s="3"/>
+      <c r="CK14" s="1"/>
+      <c r="CM14" s="2"/>
+      <c r="CO14" t="s">
+        <v>85</v>
+      </c>
+      <c r="CP14" t="s">
+        <v>86</v>
+      </c>
+      <c r="CQ14" t="s">
+        <v>87</v>
+      </c>
+      <c r="CR14" t="s">
+        <v>88</v>
+      </c>
+      <c r="CS14" t="s">
+        <v>94</v>
+      </c>
+      <c r="CT14" t="s">
+        <v>89</v>
+      </c>
+      <c r="CV14" t="s">
+        <v>104</v>
+      </c>
+      <c r="CW14" t="s">
+        <v>100</v>
+      </c>
+      <c r="CX14" t="s">
+        <v>101</v>
+      </c>
+      <c r="CY14" t="s">
+        <v>102</v>
+      </c>
+      <c r="CZ14" t="s">
+        <v>103</v>
+      </c>
+      <c r="DD14" s="2"/>
+      <c r="DE14" s="3"/>
+      <c r="DI14" s="2"/>
+    </row>
+    <row r="15" spans="1:113" x14ac:dyDescent="0.3">
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="BU15" s="3"/>
       <c r="BW15" s="2"/>
       <c r="BY15" s="2"/>
-    </row>
-    <row r="16" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="CH15" t="s">
+        <v>80</v>
+      </c>
+      <c r="CI15" t="s">
+        <v>2</v>
+      </c>
+      <c r="CJ15" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK15" t="s">
+        <v>18</v>
+      </c>
+      <c r="CL15" t="s">
+        <v>5</v>
+      </c>
+      <c r="CM15" t="s">
+        <v>4</v>
+      </c>
+      <c r="CO15" t="s">
+        <v>95</v>
+      </c>
+      <c r="CP15" t="s">
+        <v>90</v>
+      </c>
+      <c r="CQ15" t="s">
+        <v>91</v>
+      </c>
+      <c r="CR15" t="s">
+        <v>92</v>
+      </c>
+      <c r="CS15" t="s">
+        <v>93</v>
+      </c>
+      <c r="DD15" s="2"/>
+      <c r="DE15" s="3"/>
+      <c r="DI15" s="2"/>
+    </row>
+    <row r="16" spans="1:113" x14ac:dyDescent="0.3">
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="BS16" t="s">
+        <v>53</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>54</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV16" t="s">
         <v>56</v>
       </c>
-      <c r="BT16" t="s">
+      <c r="BW16" t="s">
         <v>57</v>
       </c>
-      <c r="BU16" t="s">
+      <c r="BX16" t="s">
         <v>58</v>
       </c>
-      <c r="BV16" t="s">
+      <c r="BY16" t="s">
         <v>59</v>
       </c>
-      <c r="BW16" t="s">
-        <v>60</v>
-      </c>
-      <c r="BX16" t="s">
-        <v>61</v>
-      </c>
-      <c r="BY16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="22:77" x14ac:dyDescent="0.3">
+      <c r="CH16" t="s">
+        <v>84</v>
+      </c>
+      <c r="DC16" t="s">
+        <v>107</v>
+      </c>
+      <c r="DD16" t="s">
+        <v>1</v>
+      </c>
+      <c r="DE16" t="s">
+        <v>2</v>
+      </c>
+      <c r="DF16" t="s">
+        <v>31</v>
+      </c>
+      <c r="DG16" t="s">
+        <v>18</v>
+      </c>
+      <c r="DH16" t="s">
+        <v>5</v>
+      </c>
+      <c r="DI16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="22:107" x14ac:dyDescent="0.3">
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
       <c r="AA17" s="2"/>
+      <c r="BS17" t="s">
+        <v>83</v>
+      </c>
       <c r="BT17" t="s">
+        <v>60</v>
+      </c>
+      <c r="BU17" t="s">
+        <v>61</v>
+      </c>
+      <c r="BV17" t="s">
+        <v>62</v>
+      </c>
+      <c r="BW17" t="s">
         <v>63</v>
       </c>
-      <c r="BU17" t="s">
+      <c r="BX17" t="s">
         <v>64</v>
       </c>
-      <c r="BV17" t="s">
-        <v>65</v>
-      </c>
-      <c r="BW17" t="s">
-        <v>66</v>
-      </c>
-      <c r="BX17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="22:77" x14ac:dyDescent="0.3">
+      <c r="DC17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="22:107" x14ac:dyDescent="0.3">
       <c r="V18" t="s">
         <v>16</v>
       </c>
@@ -1223,125 +1622,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="22:77" x14ac:dyDescent="0.3">
+    <row r="19" spans="22:107" x14ac:dyDescent="0.3">
       <c r="V19" t="s">
-        <v>30</v>
-      </c>
-      <c r="BY19" s="4"/>
-    </row>
-    <row r="20" spans="22:77" x14ac:dyDescent="0.3">
-      <c r="BY20" s="4"/>
-    </row>
-    <row r="21" spans="22:77" x14ac:dyDescent="0.3">
-      <c r="BY21" s="4"/>
-    </row>
-    <row r="22" spans="22:77" x14ac:dyDescent="0.3">
-      <c r="BY22" s="4"/>
-    </row>
-    <row r="23" spans="22:77" x14ac:dyDescent="0.3">
-      <c r="BY23" s="4"/>
-    </row>
-    <row r="24" spans="22:77" x14ac:dyDescent="0.3">
-      <c r="BY24" s="3"/>
-    </row>
-    <row r="25" spans="22:77" x14ac:dyDescent="0.3">
-      <c r="BY25" s="3"/>
-    </row>
-    <row r="26" spans="22:77" x14ac:dyDescent="0.3">
-      <c r="BV26" s="2"/>
-      <c r="BY26" s="3"/>
-    </row>
-    <row r="27" spans="22:77" x14ac:dyDescent="0.3">
-      <c r="BV27" s="2"/>
-      <c r="BY27" s="3"/>
-    </row>
-    <row r="28" spans="22:77" x14ac:dyDescent="0.3">
-      <c r="BV28" s="2"/>
-      <c r="BY28" s="3"/>
-    </row>
-    <row r="29" spans="22:77" x14ac:dyDescent="0.3">
-      <c r="BV29" s="2"/>
-      <c r="BY29" s="2"/>
-    </row>
-    <row r="30" spans="22:77" x14ac:dyDescent="0.3">
-      <c r="BV30" s="2"/>
-      <c r="BW30" s="3"/>
-      <c r="BY30" s="2"/>
-    </row>
-    <row r="31" spans="22:77" x14ac:dyDescent="0.3">
-      <c r="BT31" s="4"/>
-      <c r="BV31" s="3"/>
-      <c r="BW31" s="3"/>
-      <c r="BY31" s="2"/>
-    </row>
-    <row r="32" spans="22:77" x14ac:dyDescent="0.3">
-      <c r="BT32" s="4"/>
-      <c r="BV32" s="3"/>
-      <c r="BW32" s="4"/>
-      <c r="BY32" s="2"/>
-    </row>
-    <row r="33" spans="71:77" x14ac:dyDescent="0.3">
-      <c r="BT33" s="4"/>
-      <c r="BV33" s="3"/>
-      <c r="BW33" s="4"/>
-      <c r="BY33" s="2"/>
-    </row>
-    <row r="34" spans="71:77" x14ac:dyDescent="0.3">
-      <c r="BS34" t="s">
-        <v>56</v>
-      </c>
-      <c r="BT34" t="s">
-        <v>57</v>
-      </c>
-      <c r="BU34" t="s">
-        <v>58</v>
-      </c>
-      <c r="BV34" t="s">
-        <v>59</v>
-      </c>
-      <c r="BW34" t="s">
-        <v>60</v>
-      </c>
-      <c r="BX34" t="s">
-        <v>61</v>
-      </c>
-      <c r="BY34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="71:77" x14ac:dyDescent="0.3">
-      <c r="BS35" t="s">
-        <v>68</v>
-      </c>
-      <c r="BT35" t="s">
-        <v>63</v>
-      </c>
-      <c r="BU35" t="s">
-        <v>64</v>
-      </c>
-      <c r="BV35" t="s">
-        <v>65</v>
-      </c>
-      <c r="BW35" t="s">
-        <v>66</v>
-      </c>
-      <c r="BX35" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="71:77" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="73:77" x14ac:dyDescent="0.3">
       <c r="BY44" s="4"/>
     </row>
-    <row r="45" spans="71:77" x14ac:dyDescent="0.3">
+    <row r="45" spans="73:77" x14ac:dyDescent="0.3">
       <c r="BY45" s="4"/>
     </row>
-    <row r="46" spans="71:77" x14ac:dyDescent="0.3">
+    <row r="46" spans="73:77" x14ac:dyDescent="0.3">
       <c r="BY46" s="4"/>
     </row>
-    <row r="47" spans="71:77" x14ac:dyDescent="0.3">
+    <row r="47" spans="73:77" x14ac:dyDescent="0.3">
       <c r="BY47" s="4"/>
     </row>
-    <row r="48" spans="71:77" x14ac:dyDescent="0.3">
+    <row r="48" spans="73:77" x14ac:dyDescent="0.3">
       <c r="BU48" s="4"/>
       <c r="BY48" s="4"/>
     </row>
@@ -1391,30 +1689,30 @@
     </row>
     <row r="59" spans="71:77" x14ac:dyDescent="0.3">
       <c r="BS59" t="s">
+        <v>53</v>
+      </c>
+      <c r="BT59" t="s">
+        <v>54</v>
+      </c>
+      <c r="BU59" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV59" t="s">
         <v>56</v>
       </c>
-      <c r="BT59" t="s">
+      <c r="BW59" t="s">
         <v>57</v>
       </c>
-      <c r="BU59" t="s">
+      <c r="BX59" t="s">
         <v>58</v>
       </c>
-      <c r="BV59" t="s">
+      <c r="BY59" t="s">
         <v>59</v>
-      </c>
-      <c r="BW59" t="s">
-        <v>60</v>
-      </c>
-      <c r="BX59" t="s">
-        <v>61</v>
-      </c>
-      <c r="BY59" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="60" spans="71:77" x14ac:dyDescent="0.3">
       <c r="BS60" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="71:77" x14ac:dyDescent="0.3">
@@ -1479,42 +1777,42 @@
     </row>
     <row r="77" spans="71:77" x14ac:dyDescent="0.3">
       <c r="BS77" t="s">
+        <v>53</v>
+      </c>
+      <c r="BT77" t="s">
+        <v>54</v>
+      </c>
+      <c r="BU77" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV77" t="s">
         <v>56</v>
       </c>
-      <c r="BT77" t="s">
+      <c r="BW77" t="s">
         <v>57</v>
       </c>
-      <c r="BU77" t="s">
+      <c r="BX77" t="s">
         <v>58</v>
       </c>
-      <c r="BV77" t="s">
+      <c r="BY77" t="s">
         <v>59</v>
-      </c>
-      <c r="BW77" t="s">
-        <v>60</v>
-      </c>
-      <c r="BX77" t="s">
-        <v>61</v>
-      </c>
-      <c r="BY77" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="78" spans="71:77" x14ac:dyDescent="0.3">
       <c r="BT78" t="s">
+        <v>60</v>
+      </c>
+      <c r="BU78" t="s">
+        <v>61</v>
+      </c>
+      <c r="BV78" t="s">
+        <v>62</v>
+      </c>
+      <c r="BW78" t="s">
         <v>63</v>
       </c>
-      <c r="BU78" t="s">
+      <c r="BX78" t="s">
         <v>64</v>
-      </c>
-      <c r="BV78" t="s">
-        <v>65</v>
-      </c>
-      <c r="BW78" t="s">
-        <v>66</v>
-      </c>
-      <c r="BX78" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1526,15 +1824,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BB8EFC-A105-4100-84A9-E22129322B54}">
-  <dimension ref="A1:AF37"/>
+  <dimension ref="A1:AU47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="AD28" sqref="AD28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AT14" sqref="AT14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1551,25 +1849,40 @@
         <v>19</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB1" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AE1" t="s">
         <v>53</v>
       </c>
-      <c r="AB1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AH1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1601,43 +1914,73 @@
         <v>27</v>
       </c>
       <c r="P2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" t="s">
-        <v>37</v>
-      </c>
       <c r="S2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z2" t="s">
         <v>48</v>
       </c>
-      <c r="T2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="AB2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC2" t="s">
         <v>48</v>
       </c>
-      <c r="W2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="AE2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU2" t="s">
         <v>70</v>
       </c>
-      <c r="AF2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1669,43 +2012,73 @@
         <v>28</v>
       </c>
       <c r="P3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S3" t="s">
+        <v>46</v>
+      </c>
+      <c r="T3" t="s">
         <v>48</v>
       </c>
-      <c r="T3" t="s">
-        <v>50</v>
-      </c>
       <c r="V3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="W3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Y3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Z3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AB3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AE3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AF3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1737,43 +2110,73 @@
         <v>26</v>
       </c>
       <c r="P4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="V4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="W4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y4" t="s">
         <v>49</v>
       </c>
-      <c r="Y4" t="s">
-        <v>51</v>
-      </c>
       <c r="Z4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB4" t="s">
         <v>49</v>
       </c>
-      <c r="AB4" t="s">
-        <v>51</v>
-      </c>
       <c r="AC4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AE4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AF4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1805,43 +2208,73 @@
         <v>27</v>
       </c>
       <c r="P5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S5" t="s">
+        <v>47</v>
+      </c>
+      <c r="T5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB5" t="s">
         <v>49</v>
       </c>
-      <c r="T5" t="s">
-        <v>48</v>
-      </c>
-      <c r="V5" t="s">
-        <v>50</v>
-      </c>
-      <c r="W5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>51</v>
-      </c>
       <c r="AC5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AE5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AF5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1873,43 +2306,73 @@
         <v>27</v>
       </c>
       <c r="P6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S6" t="s">
+        <v>46</v>
+      </c>
+      <c r="T6" t="s">
+        <v>49</v>
+      </c>
+      <c r="V6" t="s">
+        <v>46</v>
+      </c>
+      <c r="W6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z6" t="s">
         <v>48</v>
       </c>
-      <c r="T6" t="s">
-        <v>51</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="AB6" t="s">
         <v>48</v>
       </c>
-      <c r="W6" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y6" t="s">
+      <c r="AC6" t="s">
         <v>49</v>
       </c>
-      <c r="Z6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>51</v>
-      </c>
       <c r="AE6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AF6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -1935,37 +2398,67 @@
         <v>25</v>
       </c>
       <c r="P7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" t="s">
         <v>36</v>
       </c>
-      <c r="Q7" t="s">
-        <v>37</v>
-      </c>
       <c r="V7" t="s">
+        <v>47</v>
+      </c>
+      <c r="W7" t="s">
         <v>49</v>
       </c>
-      <c r="W7" t="s">
-        <v>51</v>
-      </c>
       <c r="Y7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z7" t="s">
         <v>49</v>
       </c>
-      <c r="Z7" t="s">
-        <v>51</v>
-      </c>
       <c r="AB7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC7" t="s">
         <v>49</v>
       </c>
-      <c r="AC7" t="s">
-        <v>51</v>
-      </c>
       <c r="AE7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AF7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AU7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>7</v>
       </c>
@@ -1991,31 +2484,61 @@
         <v>26</v>
       </c>
       <c r="P8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Z8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AB8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AE8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AF8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>8</v>
       </c>
@@ -2041,25 +2564,55 @@
         <v>28</v>
       </c>
       <c r="P9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Z9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AE9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>0</v>
       </c>
@@ -2085,13 +2638,43 @@
         <v>25</v>
       </c>
       <c r="AE10" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AF10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>6</v>
       </c>
@@ -2117,13 +2700,37 @@
         <v>27</v>
       </c>
       <c r="AE11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>7</v>
       </c>
@@ -2149,13 +2756,31 @@
         <v>27</v>
       </c>
       <c r="AE12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="AF12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>103</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
       <c r="G13" t="s">
         <v>6</v>
       </c>
@@ -2169,13 +2794,31 @@
         <v>28</v>
       </c>
       <c r="AE13" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AF13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>103</v>
+      </c>
+      <c r="AT13" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AU13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
       <c r="J14" t="s">
         <v>25</v>
       </c>
@@ -2186,13 +2829,31 @@
         <v>29</v>
       </c>
       <c r="AE14" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="AF14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
       <c r="J15" t="s">
         <v>26</v>
       </c>
@@ -2206,13 +2867,25 @@
         <v>26</v>
       </c>
       <c r="AE15" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AF15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
       <c r="J16" t="s">
         <v>28</v>
       </c>
@@ -2226,13 +2899,25 @@
         <v>27</v>
       </c>
       <c r="AE16" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="AF16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="10:32" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="10:44" x14ac:dyDescent="0.3">
       <c r="M17" t="s">
         <v>25</v>
       </c>
@@ -2240,13 +2925,25 @@
         <v>26</v>
       </c>
       <c r="AE17" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AF17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="10:32" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="10:44" x14ac:dyDescent="0.3">
       <c r="J18" t="s">
         <v>29</v>
       </c>
@@ -2256,14 +2953,20 @@
       <c r="N18" t="s">
         <v>28</v>
       </c>
-      <c r="AE18" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="10:32" x14ac:dyDescent="0.3">
+      <c r="AN18" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="10:44" x14ac:dyDescent="0.3">
       <c r="J19" t="s">
         <v>6</v>
       </c>
@@ -2277,13 +2980,22 @@
         <v>28</v>
       </c>
       <c r="AE19" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="10:32" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="10:44" x14ac:dyDescent="0.3">
       <c r="J20" t="s">
         <v>6</v>
       </c>
@@ -2297,13 +3009,19 @@
         <v>26</v>
       </c>
       <c r="AE20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AF20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="10:32" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="10:44" x14ac:dyDescent="0.3">
       <c r="J21" t="s">
         <v>0</v>
       </c>
@@ -2317,13 +3035,19 @@
         <v>26</v>
       </c>
       <c r="AE21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AF21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="10:32" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="10:44" x14ac:dyDescent="0.3">
       <c r="J22" t="s">
         <v>0</v>
       </c>
@@ -2337,13 +3061,13 @@
         <v>25</v>
       </c>
       <c r="AE22" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AF22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="10:32" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="10:44" x14ac:dyDescent="0.3">
       <c r="J23" t="s">
         <v>6</v>
       </c>
@@ -2357,13 +3081,13 @@
         <v>26</v>
       </c>
       <c r="AE23" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AF23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="10:32" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="10:44" x14ac:dyDescent="0.3">
       <c r="J24" t="s">
         <v>7</v>
       </c>
@@ -2377,13 +3101,13 @@
         <v>27</v>
       </c>
       <c r="AE24" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="AF24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="10:32" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="10:44" x14ac:dyDescent="0.3">
       <c r="J25" t="s">
         <v>8</v>
       </c>
@@ -2397,13 +3121,13 @@
         <v>27</v>
       </c>
       <c r="AE25" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AF25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="10:32" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="10:44" x14ac:dyDescent="0.3">
       <c r="J26" t="s">
         <v>8</v>
       </c>
@@ -2417,13 +3141,13 @@
         <v>28</v>
       </c>
       <c r="AE26" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="AF26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="10:32" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="10:44" x14ac:dyDescent="0.3">
       <c r="J27" t="s">
         <v>7</v>
       </c>
@@ -2437,13 +3161,13 @@
         <v>26</v>
       </c>
       <c r="AE27" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="AF27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="10:32" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="10:44" x14ac:dyDescent="0.3">
       <c r="J28" t="s">
         <v>0</v>
       </c>
@@ -2457,13 +3181,13 @@
         <v>28</v>
       </c>
       <c r="AE28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="10:32" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="10:44" x14ac:dyDescent="0.3">
       <c r="J29" t="s">
         <v>8</v>
       </c>
@@ -2477,13 +3201,13 @@
         <v>25</v>
       </c>
       <c r="AE29" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AF29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="10:32" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="10:44" x14ac:dyDescent="0.3">
       <c r="J30" t="s">
         <v>6</v>
       </c>
@@ -2496,8 +3220,14 @@
       <c r="N30" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="10:32" x14ac:dyDescent="0.3">
+      <c r="AE30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="10:44" x14ac:dyDescent="0.3">
       <c r="J31" t="s">
         <v>0</v>
       </c>
@@ -2510,8 +3240,14 @@
       <c r="N31" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="10:32" x14ac:dyDescent="0.3">
+      <c r="AE31" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="10:44" x14ac:dyDescent="0.3">
       <c r="J32" t="s">
         <v>7</v>
       </c>
@@ -2524,8 +3260,14 @@
       <c r="N32" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="33" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="AE32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="10:32" x14ac:dyDescent="0.3">
       <c r="J33" t="s">
         <v>8</v>
       </c>
@@ -2538,37 +3280,147 @@
       <c r="N33" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="34" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="AE33" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="10:32" x14ac:dyDescent="0.3">
       <c r="J34" t="s">
         <v>0</v>
       </c>
       <c r="K34" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="AE34" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="10:32" x14ac:dyDescent="0.3">
       <c r="J35" t="s">
         <v>0</v>
       </c>
       <c r="K35" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="AE35" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="10:32" x14ac:dyDescent="0.3">
       <c r="J36" t="s">
         <v>7</v>
       </c>
       <c r="K36" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="AE36" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="10:32" x14ac:dyDescent="0.3">
       <c r="J37" t="s">
         <v>6</v>
       </c>
       <c r="K37" t="s">
         <v>8</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="10:32" x14ac:dyDescent="0.3">
+      <c r="AE38" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="10:32" x14ac:dyDescent="0.3">
+      <c r="AE39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="10:32" x14ac:dyDescent="0.3">
+      <c r="AE40" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="10:32" x14ac:dyDescent="0.3">
+      <c r="AE41" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="10:32" x14ac:dyDescent="0.3">
+      <c r="AE42" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="10:32" x14ac:dyDescent="0.3">
+      <c r="AE43" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="10:32" x14ac:dyDescent="0.3">
+      <c r="AE44" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="10:32" x14ac:dyDescent="0.3">
+      <c r="AE45" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="10:32" x14ac:dyDescent="0.3">
+      <c r="AE46" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="10:32" x14ac:dyDescent="0.3">
+      <c r="AE47" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
